--- a/input/Sine1.xlsx
+++ b/input/Sine1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1253469732640679</v>
+        <v>0.1455880165028277</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3747217895460128</v>
+        <v>0.1280610774805511</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1449375192660606</v>
+        <v>0.09270042616372805</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B3" t="n">
-        <v>0.104980029346578</v>
+        <v>0.09139151174382656</v>
       </c>
       <c r="C3" t="n">
-        <v>2.128271538092171</v>
+        <v>2.548199582842637</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09774674146029175</v>
+        <v>0.1184211724430862</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0608836651555608</v>
+        <v>0.05983318338467544</v>
       </c>
       <c r="C4" t="n">
-        <v>3.763882843464108</v>
+        <v>4.149682042742901</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1837042236148162</v>
+        <v>0.1067871507012871</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05449603948812851</v>
+        <v>0.108364248077063</v>
       </c>
       <c r="C5" t="n">
-        <v>4.647745564741336</v>
+        <v>4.935671882245719</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1560221418289719</v>
+        <v>0.1606575392949604</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09468473749458314</v>
+        <v>0.06804098872428861</v>
       </c>
       <c r="C6" t="n">
-        <v>5.126006829520938</v>
+        <v>4.707338191198275</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1715373450395278</v>
+        <v>0.201327409164833</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1322221133074517</v>
+        <v>0.09206696030400119</v>
       </c>
       <c r="C7" t="n">
-        <v>4.219533825603533</v>
+        <v>4.201761483090537</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1406181926077438</v>
+        <v>0.1025373591177245</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2.59993874779845</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1423171099636521</v>
+        <v>0.09046146085689701</v>
       </c>
       <c r="C8" t="n">
-        <v>2.817796761280715</v>
+        <v>2.778719414675342</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09302474460244778</v>
+        <v>0.1558098794300889</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>3.033261872431524</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1422591923617378</v>
+        <v>0.07886436601773093</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3434681502514942</v>
+        <v>0.03350573213367947</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08320824916400189</v>
+        <v>0.154601706930968</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>3.466584997064599</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09119646687323067</v>
+        <v>0.09506032031438941</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.3321604954604</v>
+        <v>-1.495458666213109</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08742254015495772</v>
+        <v>0.1650805057731569</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>3.899908121697675</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1131993755035835</v>
+        <v>0.07869772232140226</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.737794086071147</v>
+        <v>-3.653063522703919</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1127796884362974</v>
+        <v>0.2037632037382193</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>4.333231246330749</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07213028718070943</v>
+        <v>0.103082925621828</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.530291048149811</v>
+        <v>-4.46875886981198</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2179957805166491</v>
+        <v>0.1469853422132432</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>4.766554370963824</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1404358700517557</v>
+        <v>0.1388981845366059</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.954022730161286</v>
+        <v>-4.858232231565448</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1914810754290989</v>
+        <v>0.1858437507872601</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>5.199877495596899</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1443107625815722</v>
+        <v>0.09069162671203221</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.494385247373114</v>
+        <v>-4.450859129078268</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1466266068488966</v>
+        <v>0.213201029001834</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>5.633200620229974</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1460923335101532</v>
+        <v>0.1115689197831609</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.094442925267099</v>
+        <v>-2.986969868350579</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1496537694971247</v>
+        <v>0.1278059581188271</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>6.066523744863049</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08654883622053131</v>
+        <v>0.09245792824833171</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.03084227777213</v>
+        <v>-1.547766147877984</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1909552995608621</v>
+        <v>0.1629921861483814</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>6.499846869496124</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08851079591097052</v>
+        <v>0.1425707420760201</v>
       </c>
       <c r="C17" t="n">
-        <v>1.161702311389565</v>
+        <v>1.024787522364725</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1541813416013519</v>
+        <v>0.09930502171121953</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>6.933169994129199</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0714654672730595</v>
+        <v>0.09094871485179887</v>
       </c>
       <c r="C18" t="n">
-        <v>3.126933084462827</v>
+        <v>2.958544685266378</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1888135790726017</v>
+        <v>0.1409829891313443</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>7.366493118762274</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1352980710023691</v>
+        <v>0.1284462752495574</v>
       </c>
       <c r="C19" t="n">
-        <v>4.44074013383754</v>
+        <v>4.375785770475057</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2056666884341078</v>
+        <v>0.135631851107491</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>7.799816243395349</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1006530878507612</v>
+        <v>0.1066601377215915</v>
       </c>
       <c r="C20" t="n">
-        <v>5.078754112029663</v>
+        <v>5.05021771817742</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1318516065567988</v>
+        <v>0.195627997566301</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>8.233139368028423</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1445361659108099</v>
+        <v>0.05360559235318207</v>
       </c>
       <c r="C21" t="n">
-        <v>4.871094511009469</v>
+        <v>4.611108772339825</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1069790630609148</v>
+        <v>0.09412752215797995</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>8.666462492661498</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05710846414774709</v>
+        <v>0.1330634175891486</v>
       </c>
       <c r="C22" t="n">
-        <v>3.131665921488641</v>
+        <v>3.489665551903669</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1702887578703094</v>
+        <v>0.1275693512478061</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>9.099785617294573</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07102567500636972</v>
+        <v>0.1470496085731526</v>
       </c>
       <c r="C23" t="n">
-        <v>1.579391906253419</v>
+        <v>1.61533540159829</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1679302137845372</v>
+        <v>0.11133842161863</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>9.533108741927649</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1270256732222407</v>
+        <v>0.08379739931321023</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.5106620482016457</v>
+        <v>-0.04494584946378549</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2152614256264299</v>
+        <v>0.1529469426678755</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>9.966431866560724</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0810451658981087</v>
+        <v>0.06029211290147602</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.539241225127678</v>
+        <v>-1.942407820099582</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2008170578540507</v>
+        <v>0.1616473544859163</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>10.3997549911938</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1318047458656833</v>
+        <v>0.0880550385632594</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.068515416080038</v>
+        <v>-3.655319961100368</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1112945455497117</v>
+        <v>0.2012530015560313</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>10.83307811582687</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1073863737395416</v>
+        <v>0.0652092905486486</v>
       </c>
       <c r="C27" t="n">
-        <v>-4.984881479714105</v>
+        <v>-5.004316611494589</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1006609530612045</v>
+        <v>0.1945982067478729</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>11.26640124045995</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07447981827018949</v>
+        <v>0.05023201584900652</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.552521712221588</v>
+        <v>-5.082250238617195</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2241443965715986</v>
+        <v>0.07613404961077201</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>11.69972436509302</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1032031328219301</v>
+        <v>0.07485939915551286</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.751951557083092</v>
+        <v>-3.93128332438776</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1910060886954042</v>
+        <v>0.1383974990886414</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>12.1330474897261</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07468913347373325</v>
+        <v>0.1288521967776751</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.052353065562151</v>
+        <v>-2.169156619365828</v>
       </c>
       <c r="D30" t="n">
-        <v>0.165533453351344</v>
+        <v>0.1204428614699008</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>12.56637061435917</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1445936634753795</v>
+        <v>0.05598252222373116</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1018182630431585</v>
+        <v>0.1443862475804094</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1903913831453402</v>
+        <v>0.1934376238137063</v>
       </c>
     </row>
   </sheetData>
